--- a/produtos/prodtres/tabelas_p3.xlsx
+++ b/produtos/prodtres/tabelas_p3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liks9\Google Drive\GitHub\latex_PMGIRS\produtos\prodtres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0664F35-7F5B-424F-AEA1-B9F1E0983E98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421678B-8901-4658-9F05-5BBF18B9C5A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="48" activeTab="53" xr2:uid="{DF05E89E-9300-429A-8C29-7CC11C03DA89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="45" activeTab="49" xr2:uid="{DF05E89E-9300-429A-8C29-7CC11C03DA89}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura_coleta" sheetId="1" r:id="rId1"/>
@@ -3453,6 +3453,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="50" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="50" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="51" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3482,21 +3497,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="50" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="50" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4667,12 +4667,12 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="236" t="s">
+      <c r="A15" s="241" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="236"/>
-      <c r="C15" s="236"/>
-      <c r="D15" s="236"/>
+      <c r="B15" s="241"/>
+      <c r="C15" s="241"/>
+      <c r="D15" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5185,13 +5185,13 @@
       <c r="A2" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="242" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="239"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="243"/>
+      <c r="F2" s="244"/>
       <c r="G2" s="69" t="s">
         <v>158</v>
       </c>
@@ -5380,16 +5380,16 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="240" t="s">
+      <c r="A11" s="245" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="109" t="s">
@@ -7085,18 +7085,18 @@
     </row>
     <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="137"/>
-      <c r="B2" s="241" t="s">
+      <c r="B2" s="246" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="242"/>
-      <c r="D2" s="241" t="s">
+      <c r="C2" s="247"/>
+      <c r="D2" s="246" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="242"/>
-      <c r="F2" s="243" t="s">
+      <c r="E2" s="247"/>
+      <c r="F2" s="248" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="243"/>
+      <c r="G2" s="248"/>
     </row>
     <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="137" t="s">
@@ -8877,7 +8877,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8920,7 +8920,7 @@
         <v>497</v>
       </c>
       <c r="B5" s="159">
-        <v>3509.11</v>
+        <v>3468.59</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -8928,7 +8928,8 @@
         <v>195</v>
       </c>
       <c r="B6" s="163">
-        <v>10832.33</v>
+        <f>SUM(B3:B5)</f>
+        <v>10791.83</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -9155,7 +9156,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0136C9A5-6554-4966-AE16-6265A5A2553A}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -9197,7 +9200,7 @@
         <v>497</v>
       </c>
       <c r="B5" s="169">
-        <v>438.7</v>
+        <v>274.55</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -9205,7 +9208,8 @@
         <v>195</v>
       </c>
       <c r="B6" s="171">
-        <v>7761.93</v>
+        <f>SUM(B3:B5)</f>
+        <v>7597.78</v>
       </c>
     </row>
   </sheetData>
@@ -25955,7 +25959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A23A79C-F720-4065-9056-D02F2AF122BD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -25966,34 +25970,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="244" t="s">
+      <c r="A1" s="234" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="245">
+      <c r="B1" s="235">
         <v>16130560</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="246" t="s">
+      <c r="A2" s="236" t="s">
         <v>534</v>
       </c>
-      <c r="B2" s="247">
+      <c r="B2" s="237">
         <v>431440</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="246" t="s">
+      <c r="A3" s="236" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="245">
+      <c r="B3" s="235">
         <v>500000</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="246" t="s">
+      <c r="A4" s="236" t="s">
         <v>536</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="238">
         <f>SUM(B1:B3)</f>
         <v>17062000</v>
       </c>
@@ -26237,13 +26241,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="234" t="s">
+      <c r="A14" s="239" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="234"/>
-      <c r="D14" s="234"/>
-      <c r="E14" s="234"/>
+      <c r="B14" s="239"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
@@ -26460,13 +26464,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="235" t="s">
+      <c r="A9" s="240" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -26563,7 +26567,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="58" t="s">
         <v>100</v>
       </c>

--- a/produtos/prodtres/tabelas_p3.xlsx
+++ b/produtos/prodtres/tabelas_p3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liks9\Google Drive\GitHub\latex_PMGIRS\produtos\prodtres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TalitaGuerra\Documents\GitHub\latex_PMGIRS\produtos\prodtres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0664F35-7F5B-424F-AEA1-B9F1E0983E98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3372216C-DC17-49FE-80F3-6B574567A4AB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="48" activeTab="53" xr2:uid="{DF05E89E-9300-429A-8C29-7CC11C03DA89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="48" activeTab="53" xr2:uid="{DF05E89E-9300-429A-8C29-7CC11C03DA89}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura_coleta" sheetId="1" r:id="rId1"/>
@@ -2121,8 +2121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="52" x14ac:knownFonts="1">
     <font>
@@ -2451,12 +2451,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2469,8 +2463,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2545,13 +2544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBD4B4"/>
+        <fgColor theme="5" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2768,7 +2761,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3232,19 +3225,19 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3260,13 +3253,13 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3278,13 +3271,13 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3431,7 +3424,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3483,20 +3476,20 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="49" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="50" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="50" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3819,17 +3812,17 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="9">
         <v>2000</v>
@@ -3860,7 +3853,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3886,7 @@
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3926,7 +3919,7 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -3959,7 +3952,7 @@
       </c>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3992,7 +3985,7 @@
       </c>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -4025,7 +4018,7 @@
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -4058,7 +4051,7 @@
       </c>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -4091,7 +4084,7 @@
       </c>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
@@ -4124,7 +4117,7 @@
       </c>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -4157,7 +4150,7 @@
       </c>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +4183,7 @@
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -4223,7 +4216,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
@@ -4256,7 +4249,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -4289,7 +4282,7 @@
       </c>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -4322,7 +4315,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
@@ -4355,7 +4348,7 @@
       </c>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -4388,7 +4381,7 @@
       </c>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
@@ -4421,7 +4414,7 @@
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -4454,7 +4447,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -4474,17 +4467,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>81</v>
       </c>
@@ -4498,7 +4491,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
         <v>107</v>
       </c>
@@ -4512,7 +4505,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="119" t="s">
         <v>75</v>
       </c>
@@ -4526,7 +4519,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
         <v>71</v>
       </c>
@@ -4540,7 +4533,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="119" t="s">
         <v>69</v>
       </c>
@@ -4554,7 +4547,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
         <v>108</v>
       </c>
@@ -4568,7 +4561,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="119" t="s">
         <v>76</v>
       </c>
@@ -4582,7 +4575,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="118" t="s">
         <v>68</v>
       </c>
@@ -4596,7 +4589,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
         <v>66</v>
       </c>
@@ -4610,7 +4603,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="118" t="s">
         <v>109</v>
       </c>
@@ -4624,7 +4617,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="119" t="s">
         <v>110</v>
       </c>
@@ -4638,7 +4631,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>101</v>
       </c>
@@ -4652,7 +4645,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="119" t="s">
         <v>67</v>
       </c>
@@ -4666,7 +4659,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="236" t="s">
         <v>113</v>
       </c>
@@ -4688,17 +4681,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>84</v>
       </c>
@@ -4712,7 +4705,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
         <v>83</v>
       </c>
@@ -4726,7 +4719,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
         <v>115</v>
       </c>
@@ -4745,22 +4738,22 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>526</v>
       </c>
@@ -4781,7 +4774,7 @@
       </c>
       <c r="G2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="119">
         <v>2010</v>
       </c>
@@ -4802,7 +4795,7 @@
       </c>
       <c r="G3" s="89"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="118">
         <v>2014</v>
       </c>
@@ -4823,7 +4816,7 @@
       </c>
       <c r="G4" s="89"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="119">
         <v>2018</v>
       </c>
@@ -4844,7 +4837,7 @@
       </c>
       <c r="G5" s="89"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="118">
         <v>2022</v>
       </c>
@@ -4865,7 +4858,7 @@
       </c>
       <c r="G6" s="89"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="119">
         <v>2026</v>
       </c>
@@ -4886,7 +4879,7 @@
       </c>
       <c r="G7" s="89"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="118">
         <v>2030</v>
       </c>
@@ -4907,7 +4900,7 @@
       </c>
       <c r="G8" s="89"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -4925,18 +4918,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>123</v>
       </c>
@@ -4944,7 +4937,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="97">
         <v>10004</v>
       </c>
@@ -4952,7 +4945,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
         <v>10005</v>
       </c>
@@ -4960,7 +4953,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="97">
         <v>10006</v>
       </c>
@@ -4968,7 +4961,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="98">
         <v>10007</v>
       </c>
@@ -4976,12 +4969,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="83"/>
     </row>
   </sheetData>
@@ -4997,67 +4990,67 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.453125" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="205" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="206" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="207" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="206" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="206" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="206" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="50.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="208" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="50.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="205" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="208" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="206" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>136</v>
       </c>
@@ -5075,20 +5068,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="72" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="72" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="72"/>
+    <col min="1" max="1" width="13.5703125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="72" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="72" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="108"/>
       <c r="B2" s="108" t="s">
         <v>138</v>
@@ -5097,7 +5090,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>140</v>
       </c>
@@ -5108,7 +5101,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
         <v>143</v>
       </c>
@@ -5119,7 +5112,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>146</v>
       </c>
@@ -5130,7 +5123,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
         <v>149</v>
       </c>
@@ -5141,7 +5134,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>152</v>
       </c>
@@ -5152,7 +5145,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
@@ -5168,20 +5161,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="6" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="18" style="111" customWidth="1"/>
-    <col min="8" max="8" width="28.26953125" style="111" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
         <v>186</v>
       </c>
@@ -5199,7 +5192,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
       <c r="B3" s="112" t="s">
         <v>160</v>
@@ -5219,7 +5212,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="67"/>
     </row>
-    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
         <v>165</v>
       </c>
@@ -5243,7 +5236,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
         <v>170</v>
       </c>
@@ -5267,7 +5260,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>172</v>
       </c>
@@ -5291,7 +5284,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
         <v>173</v>
       </c>
@@ -5313,7 +5306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="121" t="s">
         <v>175</v>
       </c>
@@ -5335,7 +5328,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="122" t="s">
         <v>178</v>
       </c>
@@ -5357,7 +5350,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="s">
         <v>180</v>
       </c>
@@ -5379,7 +5372,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="240" t="s">
         <v>181</v>
       </c>
@@ -5391,7 +5384,7 @@
       <c r="G11" s="240"/>
       <c r="H11" s="240"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="109" t="s">
         <v>115</v>
       </c>
@@ -5413,19 +5406,19 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>11</v>
       </c>
@@ -5436,7 +5429,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="118">
         <v>2009</v>
       </c>
@@ -5447,7 +5440,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="119">
         <v>2010</v>
       </c>
@@ -5458,7 +5451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="118">
         <v>2011</v>
       </c>
@@ -5469,7 +5462,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="119">
         <v>2012</v>
       </c>
@@ -5480,7 +5473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="118">
         <v>2013</v>
       </c>
@@ -5491,7 +5484,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="119">
         <v>2014</v>
       </c>
@@ -5502,7 +5495,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="118">
         <v>2015</v>
       </c>
@@ -5513,7 +5506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="117" t="s">
         <v>185</v>
       </c>
@@ -5531,17 +5524,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="212" t="s">
         <v>11</v>
       </c>
@@ -5549,7 +5542,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="123">
         <v>2009</v>
       </c>
@@ -5557,7 +5550,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="124">
         <v>2010</v>
       </c>
@@ -5565,7 +5558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="123">
         <v>2011</v>
       </c>
@@ -5573,7 +5566,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="124">
         <v>2012</v>
       </c>
@@ -5581,7 +5574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="123">
         <v>2013</v>
       </c>
@@ -5589,7 +5582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="124">
         <v>2014</v>
       </c>
@@ -5597,7 +5590,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="123">
         <v>2015</v>
       </c>
@@ -5605,7 +5598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>185</v>
       </c>
@@ -5623,17 +5616,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>190</v>
       </c>
@@ -5653,7 +5646,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>196</v>
       </c>
@@ -5673,7 +5666,7 @@
         <v>26162.799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>197</v>
       </c>
@@ -5693,7 +5686,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>198</v>
       </c>
@@ -5713,7 +5706,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>199</v>
       </c>
@@ -5733,7 +5726,7 @@
         <v>14325.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>200</v>
       </c>
@@ -5753,7 +5746,7 @@
         <v>3376.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>201</v>
       </c>
@@ -5773,7 +5766,7 @@
         <v>6357.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>202</v>
       </c>
@@ -5793,7 +5786,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>203</v>
       </c>
@@ -5813,7 +5806,7 @@
         <v>1397.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>204</v>
       </c>
@@ -5833,7 +5826,7 @@
         <v>472.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
         <v>205</v>
       </c>
@@ -5851,22 +5844,22 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>11</v>
       </c>
@@ -5889,7 +5882,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="182">
         <v>2009</v>
       </c>
@@ -5912,7 +5905,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="183">
         <v>2010</v>
       </c>
@@ -5935,7 +5928,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="182">
         <v>2011</v>
       </c>
@@ -5958,7 +5951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="183">
         <v>2012</v>
       </c>
@@ -5981,7 +5974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="182">
         <v>2013</v>
       </c>
@@ -6004,7 +5997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="183">
         <v>2014</v>
       </c>
@@ -6027,7 +6020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="182">
         <v>2015</v>
       </c>
@@ -6050,7 +6043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>26</v>
       </c>
@@ -6068,19 +6061,19 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
@@ -6100,7 +6093,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="123" t="s">
         <v>209</v>
       </c>
@@ -6120,7 +6113,7 @@
         <v>11110.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="124" t="s">
         <v>210</v>
       </c>
@@ -6140,7 +6133,7 @@
         <v>3376.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="123" t="s">
         <v>211</v>
       </c>
@@ -6160,7 +6153,7 @@
         <v>2386.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="124" t="s">
         <v>212</v>
       </c>
@@ -6180,7 +6173,7 @@
         <v>462.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
         <v>213</v>
       </c>
@@ -6200,7 +6193,7 @@
         <v>314.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="124" t="s">
         <v>214</v>
       </c>
@@ -6220,7 +6213,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
         <v>215</v>
       </c>
@@ -6240,7 +6233,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="124" t="s">
         <v>216</v>
       </c>
@@ -6260,7 +6253,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="123" t="s">
         <v>217</v>
       </c>
@@ -6280,7 +6273,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="124" t="s">
         <v>218</v>
       </c>
@@ -6300,7 +6293,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
         <v>219</v>
       </c>
@@ -6320,7 +6313,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="124" t="s">
         <v>220</v>
       </c>
@@ -6340,7 +6333,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="123" t="s">
         <v>221</v>
       </c>
@@ -6360,7 +6353,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
         <v>222</v>
       </c>
@@ -6380,7 +6373,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="123" t="s">
         <v>223</v>
       </c>
@@ -6400,7 +6393,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="124" t="s">
         <v>224</v>
       </c>
@@ -6420,7 +6413,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="123" t="s">
         <v>225</v>
       </c>
@@ -6440,7 +6433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="124" t="s">
         <v>226</v>
       </c>
@@ -6460,7 +6453,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="123" t="s">
         <v>227</v>
       </c>
@@ -6480,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="124" t="s">
         <v>228</v>
       </c>
@@ -6500,7 +6493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="123" t="s">
         <v>229</v>
       </c>
@@ -6520,7 +6513,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>205</v>
       </c>
@@ -6539,20 +6532,20 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>231</v>
       </c>
@@ -6575,7 +6568,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="123" t="s">
         <v>236</v>
       </c>
@@ -6598,7 +6591,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="124" t="s">
         <v>238</v>
       </c>
@@ -6621,7 +6614,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="123" t="s">
         <v>239</v>
       </c>
@@ -6644,7 +6637,7 @@
         <v>8763</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="124" t="s">
         <v>240</v>
       </c>
@@ -6667,7 +6660,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
         <v>241</v>
       </c>
@@ -6690,7 +6683,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="124" t="s">
         <v>243</v>
       </c>
@@ -6713,7 +6706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
         <v>244</v>
       </c>
@@ -6736,7 +6729,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="124" t="s">
         <v>245</v>
       </c>
@@ -6759,7 +6752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="123" t="s">
         <v>246</v>
       </c>
@@ -6782,7 +6775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="124" t="s">
         <v>248</v>
       </c>
@@ -6805,7 +6798,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
         <v>249</v>
       </c>
@@ -6828,7 +6821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="124" t="s">
         <v>251</v>
       </c>
@@ -6851,7 +6844,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="123" t="s">
         <v>252</v>
       </c>
@@ -6874,7 +6867,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
         <v>253</v>
       </c>
@@ -6897,7 +6890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>205</v>
       </c>
@@ -6915,18 +6908,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="110" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="110" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>255</v>
       </c>
@@ -6934,25 +6927,25 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="133" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="79"/>
       <c r="B4" s="133" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="133" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>260</v>
       </c>
@@ -6960,7 +6953,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>262</v>
       </c>
@@ -6968,7 +6961,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>264</v>
       </c>
@@ -6977,7 +6970,7 @@
       </c>
       <c r="D8" s="135"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="109" t="s">
         <v>266</v>
       </c>
@@ -6995,18 +6988,18 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.81640625" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
         <v>268</v>
       </c>
@@ -7014,7 +7007,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
         <v>270</v>
       </c>
@@ -7022,7 +7015,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>271</v>
       </c>
@@ -7030,7 +7023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
         <v>272</v>
       </c>
@@ -7038,7 +7031,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>273</v>
       </c>
@@ -7046,7 +7039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="115" t="s">
         <v>50</v>
       </c>
@@ -7054,7 +7047,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>274</v>
       </c>
@@ -7070,20 +7063,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="137"/>
       <c r="B2" s="241" t="s">
         <v>276</v>
@@ -7098,7 +7091,7 @@
       </c>
       <c r="G2" s="243"/>
     </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="137" t="s">
         <v>86</v>
       </c>
@@ -7121,7 +7114,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="136" t="s">
         <v>94</v>
       </c>
@@ -7138,7 +7131,7 @@
       </c>
       <c r="G4" s="75"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="141" t="s">
         <v>93</v>
       </c>
@@ -7157,7 +7150,7 @@
       </c>
       <c r="G5" s="76"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
         <v>92</v>
       </c>
@@ -7174,7 +7167,7 @@
       </c>
       <c r="G6" s="75"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="141" t="s">
         <v>95</v>
       </c>
@@ -7193,7 +7186,7 @@
       </c>
       <c r="G7" s="76"/>
     </row>
-    <row r="8" spans="1:7" s="139" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="139" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="136" t="s">
         <v>96</v>
       </c>
@@ -7212,7 +7205,7 @@
       </c>
       <c r="G8" s="75"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="141" t="s">
         <v>281</v>
       </c>
@@ -7249,17 +7242,17 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.54296875" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="147" t="s">
         <v>283</v>
       </c>
@@ -7267,7 +7260,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="148" t="s">
         <v>285</v>
       </c>
@@ -7275,7 +7268,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
         <v>287</v>
       </c>
@@ -7283,7 +7276,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="148" t="s">
         <v>289</v>
       </c>
@@ -7291,7 +7284,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="147" t="s">
         <v>291</v>
       </c>
@@ -7299,7 +7292,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="148" t="s">
         <v>293</v>
       </c>
@@ -7307,7 +7300,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="147" t="s">
         <v>294</v>
       </c>
@@ -7315,7 +7308,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
@@ -7333,18 +7326,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="136" t="s">
         <v>299</v>
       </c>
@@ -7352,7 +7345,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="141" t="s">
         <v>301</v>
       </c>
@@ -7360,7 +7353,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="136" t="s">
         <v>303</v>
       </c>
@@ -7368,7 +7361,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="141" t="s">
         <v>305</v>
       </c>
@@ -7376,7 +7369,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>307</v>
       </c>
@@ -7394,18 +7387,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="59.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>309</v>
       </c>
@@ -7413,7 +7406,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
         <v>311</v>
       </c>
@@ -7421,7 +7414,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>313</v>
       </c>
@@ -7429,7 +7422,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="140" t="s">
         <v>315</v>
       </c>
@@ -7437,7 +7430,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>317</v>
       </c>
@@ -7455,19 +7448,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
         <v>331</v>
       </c>
@@ -7478,7 +7471,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
         <v>321</v>
       </c>
@@ -7489,7 +7482,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>324</v>
       </c>
@@ -7500,7 +7493,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
         <v>327</v>
       </c>
@@ -7511,7 +7504,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>329</v>
       </c>
@@ -7522,7 +7515,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -7540,22 +7533,22 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
         <v>331</v>
       </c>
@@ -7575,7 +7568,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
         <v>324</v>
       </c>
@@ -7595,7 +7588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>338</v>
       </c>
@@ -7615,7 +7608,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
         <v>344</v>
       </c>
@@ -7635,7 +7628,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -7651,18 +7644,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="185" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
@@ -7670,7 +7663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>20</v>
       </c>
@@ -7678,7 +7671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>22</v>
       </c>
@@ -7686,7 +7679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>23</v>
       </c>
@@ -7694,7 +7687,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>24</v>
       </c>
@@ -7715,57 +7708,57 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>356</v>
       </c>
@@ -7783,52 +7776,52 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>364</v>
       </c>
@@ -7844,72 +7837,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.1796875" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="218" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="218" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="218" t="s">
         <v>377</v>
       </c>
@@ -7925,87 +7918,87 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="218" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="218" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="218" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="218" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="218" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="218" t="s">
         <v>393</v>
       </c>
@@ -8021,57 +8014,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.81640625" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="219" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="219" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="219" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="219" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="219" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="219" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="219" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="219" t="s">
         <v>403</v>
       </c>
@@ -8087,57 +8080,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>403</v>
       </c>
@@ -8153,57 +8146,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7265625" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>419</v>
       </c>
@@ -8219,47 +8212,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>426</v>
       </c>
@@ -8275,47 +8268,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>434</v>
       </c>
@@ -8331,62 +8324,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.453125" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="218" t="s">
         <v>445</v>
       </c>
@@ -8404,18 +8397,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>28</v>
       </c>
@@ -8423,7 +8416,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>20</v>
       </c>
@@ -8431,25 +8424,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="59" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>22</v>
       </c>
@@ -8457,13 +8450,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
       <c r="B8" s="60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>23</v>
       </c>
@@ -8471,19 +8464,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>24</v>
       </c>
@@ -8491,13 +8484,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
       <c r="B13" s="60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>37</v>
       </c>
@@ -8513,27 +8506,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="153" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>449</v>
       </c>
@@ -8549,32 +8542,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>454</v>
       </c>
@@ -8590,42 +8583,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.7265625" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="220" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="221" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="221" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="221" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="221" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="221" t="s">
         <v>461</v>
       </c>
@@ -8641,47 +8634,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="222" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="223" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="223" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="223" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="223" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="223" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="223" t="s">
         <v>469</v>
       </c>
@@ -8697,42 +8690,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7265625" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="154" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="156" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="155" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="155" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="155" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="155" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="155" t="s">
         <v>476</v>
       </c>
@@ -8748,27 +8741,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.26953125" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="224" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="225" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="225" t="s">
         <v>480</v>
       </c>
@@ -8786,32 +8779,32 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7265625" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="224" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="225" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="225" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="225" t="s">
         <v>485</v>
       </c>
@@ -8827,42 +8820,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="224" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="225" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="225" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="225" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="225" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="225" t="s">
         <v>491</v>
       </c>
@@ -8880,18 +8873,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="157" t="s">
         <v>493</v>
       </c>
@@ -8899,7 +8892,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
         <v>495</v>
       </c>
@@ -8907,7 +8900,7 @@
         <v>5523.24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="160" t="s">
         <v>496</v>
       </c>
@@ -8915,7 +8908,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="158" t="s">
         <v>497</v>
       </c>
@@ -8923,7 +8916,7 @@
         <v>3509.11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="162" t="s">
         <v>195</v>
       </c>
@@ -8931,7 +8924,7 @@
         <v>10832.33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="164" t="s">
         <v>115</v>
       </c>
@@ -8949,18 +8942,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="172" t="s">
         <v>499</v>
       </c>
@@ -8968,7 +8961,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="173" t="s">
         <v>501</v>
       </c>
@@ -8976,7 +8969,7 @@
         <v>65600</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="174" t="s">
         <v>502</v>
       </c>
@@ -8984,7 +8977,7 @@
         <v>65600</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
         <v>503</v>
       </c>
@@ -8992,7 +8985,7 @@
         <v>75152</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
         <v>504</v>
       </c>
@@ -9000,20 +8993,20 @@
         <v>75152</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="165" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="166"/>
     </row>
   </sheetData>
@@ -9027,18 +9020,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="64.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>39</v>
       </c>
@@ -9046,7 +9039,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="186" t="s">
         <v>40</v>
       </c>
@@ -9054,7 +9047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="187" t="s">
         <v>41</v>
       </c>
@@ -9062,7 +9055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="186" t="s">
         <v>42</v>
       </c>
@@ -9070,7 +9063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="187" t="s">
         <v>43</v>
       </c>
@@ -9078,7 +9071,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="186" t="s">
         <v>44</v>
       </c>
@@ -9086,7 +9079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="187" t="s">
         <v>45</v>
       </c>
@@ -9094,7 +9087,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="186" t="s">
         <v>46</v>
       </c>
@@ -9102,7 +9095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="187" t="s">
         <v>47</v>
       </c>
@@ -9110,7 +9103,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="186" t="s">
         <v>48</v>
       </c>
@@ -9118,7 +9111,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="187" t="s">
         <v>49</v>
       </c>
@@ -9126,7 +9119,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="186" t="s">
         <v>50</v>
       </c>
@@ -9134,15 +9127,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="188"/>
       <c r="B14" s="45"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="45"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="45"/>
     </row>
@@ -9157,18 +9150,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="172" t="s">
         <v>493</v>
       </c>
@@ -9176,7 +9169,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="173" t="s">
         <v>495</v>
       </c>
@@ -9184,7 +9177,7 @@
         <v>5523.23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="174" t="s">
         <v>496</v>
       </c>
@@ -9192,7 +9185,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
         <v>497</v>
       </c>
@@ -9200,7 +9193,7 @@
         <v>438.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
         <v>195</v>
       </c>
@@ -9219,19 +9212,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="138" t="s">
         <v>509</v>
       </c>
@@ -9242,7 +9235,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>510</v>
       </c>
@@ -9253,7 +9246,7 @@
         <v>9205.3799999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>511</v>
       </c>
@@ -9264,7 +9257,7 @@
         <v>7364.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>512</v>
       </c>
@@ -9275,7 +9268,7 @@
         <v>1841.08</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>513</v>
       </c>
@@ -9286,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>514</v>
       </c>
@@ -9297,7 +9290,7 @@
         <v>7364.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>515</v>
       </c>
@@ -9308,7 +9301,7 @@
         <v>2502.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
         <v>195</v>
       </c>
@@ -9330,18 +9323,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>11</v>
       </c>
@@ -9349,7 +9342,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="182" t="s">
         <v>518</v>
       </c>
@@ -9357,7 +9350,7 @@
         <v>8580</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="183" t="s">
         <v>519</v>
       </c>
@@ -9365,7 +9358,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="182" t="s">
         <v>521</v>
       </c>
@@ -9373,7 +9366,7 @@
         <v>9228</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="183" t="s">
         <v>522</v>
       </c>
@@ -9381,7 +9374,7 @@
         <v>9559.56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="183" t="s">
         <v>524</v>
       </c>
@@ -9389,7 +9382,7 @@
         <v>9967.8700000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="184" t="s">
         <v>523</v>
       </c>
@@ -9407,14 +9400,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.54296875" style="89" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="227" customWidth="1"/>
-    <col min="3" max="3" width="56.08984375" style="89" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="89" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="227" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>564</v>
       </c>
@@ -25802,7 +25795,7 @@
       <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
-    <row r="2" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="232" t="s">
         <v>537</v>
       </c>
@@ -25813,7 +25806,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="228" t="s">
         <v>540</v>
       </c>
@@ -25824,7 +25817,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="230" t="s">
         <v>543</v>
       </c>
@@ -25835,7 +25828,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="228" t="s">
         <v>545</v>
       </c>
@@ -25846,7 +25839,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="230" t="s">
         <v>546</v>
       </c>
@@ -25857,7 +25850,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="228" t="s">
         <v>552</v>
       </c>
@@ -25868,7 +25861,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="230" t="s">
         <v>548</v>
       </c>
@@ -25879,7 +25872,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="228" t="s">
         <v>551</v>
       </c>
@@ -25890,7 +25883,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="230" t="s">
         <v>561</v>
       </c>
@@ -25901,7 +25894,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="228" t="s">
         <v>562</v>
       </c>
@@ -25912,7 +25905,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="230" t="s">
         <v>553</v>
       </c>
@@ -25923,7 +25916,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="228" t="s">
         <v>555</v>
       </c>
@@ -25934,7 +25927,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="230" t="s">
         <v>557</v>
       </c>
@@ -25959,50 +25952,50 @@
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="244" t="s">
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="247" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="245">
+      <c r="B1" s="244">
         <v>16130560</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="246" t="s">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="248" t="s">
         <v>534</v>
       </c>
-      <c r="B2" s="247">
+      <c r="B2" s="245">
         <v>431440</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="246" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="247" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="245">
+      <c r="B3" s="244">
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="246" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="B4" s="248">
+      <c r="B4" s="246">
         <f>SUM(B1:B3)</f>
         <v>17062000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="226"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="226"/>
     </row>
@@ -26020,19 +26013,19 @@
       <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>81</v>
       </c>
@@ -26049,7 +26042,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="193" t="s">
         <v>66</v>
       </c>
@@ -26066,7 +26059,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="192" t="s">
         <v>67</v>
       </c>
@@ -26083,7 +26076,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="193" t="s">
         <v>68</v>
       </c>
@@ -26100,7 +26093,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="192" t="s">
         <v>69</v>
       </c>
@@ -26117,7 +26110,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="193" t="s">
         <v>70</v>
       </c>
@@ -26134,7 +26127,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="192" t="s">
         <v>71</v>
       </c>
@@ -26151,7 +26144,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="193" t="s">
         <v>72</v>
       </c>
@@ -26168,7 +26161,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="192" t="s">
         <v>73</v>
       </c>
@@ -26185,7 +26178,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="193" t="s">
         <v>74</v>
       </c>
@@ -26202,7 +26195,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="192" t="s">
         <v>75</v>
       </c>
@@ -26219,7 +26212,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="193" t="s">
         <v>76</v>
       </c>
@@ -26236,7 +26229,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="234" t="s">
         <v>65</v>
       </c>
@@ -26245,7 +26238,7 @@
       <c r="D14" s="234"/>
       <c r="E14" s="234"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>64</v>
       </c>
@@ -26265,17 +26258,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>84</v>
       </c>
@@ -26292,7 +26285,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
         <v>83</v>
       </c>
@@ -26309,7 +26302,7 @@
         <v>138.15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>64</v>
       </c>
@@ -26329,18 +26322,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="5" width="15.7265625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="117" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>86</v>
       </c>
@@ -26357,7 +26350,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>91</v>
       </c>
@@ -26374,7 +26367,7 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>92</v>
       </c>
@@ -26391,7 +26384,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>93</v>
       </c>
@@ -26408,7 +26401,7 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>94</v>
       </c>
@@ -26425,7 +26418,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>95</v>
       </c>
@@ -26442,7 +26435,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>96</v>
       </c>
@@ -26459,7 +26452,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="235" t="s">
         <v>97</v>
       </c>
@@ -26468,7 +26461,7 @@
       <c r="D9" s="235"/>
       <c r="E9" s="235"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -26487,19 +26480,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="72"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>39</v>
       </c>
@@ -26507,7 +26500,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>102</v>
       </c>
@@ -26515,7 +26508,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>68</v>
       </c>
@@ -26523,7 +26516,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>42</v>
       </c>
@@ -26531,7 +26524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>43</v>
       </c>
@@ -26539,7 +26532,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>44</v>
       </c>
@@ -26547,7 +26540,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>45</v>
       </c>
@@ -26555,7 +26548,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>46</v>
       </c>
@@ -26563,7 +26556,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>100</v>
       </c>
@@ -26571,7 +26564,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>101</v>
       </c>
@@ -26579,7 +26572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>50</v>
       </c>
@@ -26587,15 +26580,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="83"/>
       <c r="B13" s="72"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
       <c r="B14" s="72"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="83"/>
       <c r="B15" s="72"/>
     </row>

--- a/produtos/prodtres/tabelas_p3.xlsx
+++ b/produtos/prodtres/tabelas_p3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liks9\Google Drive\GitHub\latex_PMGIRS\produtos\prodtres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TalitaGuerra\Documents\GitHub\latex_PMGIRS\produtos\prodtres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7421678B-8901-4658-9F05-5BBF18B9C5A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E682A9C5-4629-4FC1-9811-9205D9BAF121}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="45" activeTab="49" xr2:uid="{DF05E89E-9300-429A-8C29-7CC11C03DA89}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="48" activeTab="53" xr2:uid="{DF05E89E-9300-429A-8C29-7CC11C03DA89}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura_coleta" sheetId="1" r:id="rId1"/>
@@ -2121,10 +2121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2451,12 +2451,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -2469,8 +2463,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2540,18 +2547,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF79646"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBD4B4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2768,9 +2763,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3232,19 +3227,19 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3260,13 +3255,13 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3278,13 +3273,13 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3431,7 +3426,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3453,19 +3448,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="50" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="50" fillId="14" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="51" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="50" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3498,6 +3481,19 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="49" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -3819,17 +3815,17 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="9">
         <v>2000</v>
@@ -3860,7 +3856,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3893,7 +3889,7 @@
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3926,7 +3922,7 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -3959,7 +3955,7 @@
       </c>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3992,7 +3988,7 @@
       </c>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -4025,7 +4021,7 @@
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -4058,7 +4054,7 @@
       </c>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -4091,7 +4087,7 @@
       </c>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
@@ -4124,7 +4120,7 @@
       </c>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -4157,7 +4153,7 @@
       </c>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +4186,7 @@
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -4223,7 +4219,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
@@ -4256,7 +4252,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -4289,7 +4285,7 @@
       </c>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -4322,7 +4318,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
@@ -4355,7 +4351,7 @@
       </c>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -4388,7 +4384,7 @@
       </c>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
@@ -4421,7 +4417,7 @@
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -4454,7 +4450,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -4474,17 +4470,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>81</v>
       </c>
@@ -4498,7 +4494,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="118" t="s">
         <v>107</v>
       </c>
@@ -4512,7 +4508,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="119" t="s">
         <v>75</v>
       </c>
@@ -4526,7 +4522,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="118" t="s">
         <v>71</v>
       </c>
@@ -4540,7 +4536,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="119" t="s">
         <v>69</v>
       </c>
@@ -4554,7 +4550,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="118" t="s">
         <v>108</v>
       </c>
@@ -4568,7 +4564,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="119" t="s">
         <v>76</v>
       </c>
@@ -4582,7 +4578,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="118" t="s">
         <v>68</v>
       </c>
@@ -4596,7 +4592,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="119" t="s">
         <v>66</v>
       </c>
@@ -4610,7 +4606,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="118" t="s">
         <v>109</v>
       </c>
@@ -4624,7 +4620,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="119" t="s">
         <v>110</v>
       </c>
@@ -4638,7 +4634,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="118" t="s">
         <v>101</v>
       </c>
@@ -4652,7 +4648,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="119" t="s">
         <v>67</v>
       </c>
@@ -4666,13 +4662,13 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="241" t="s">
+    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="237" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="241"/>
-      <c r="C15" s="241"/>
-      <c r="D15" s="241"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4688,17 +4684,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>84</v>
       </c>
@@ -4712,7 +4708,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
         <v>83</v>
       </c>
@@ -4726,7 +4722,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
         <v>115</v>
       </c>
@@ -4745,22 +4741,22 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>526</v>
       </c>
@@ -4781,7 +4777,7 @@
       </c>
       <c r="G2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="119">
         <v>2010</v>
       </c>
@@ -4802,7 +4798,7 @@
       </c>
       <c r="G3" s="89"/>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="118">
         <v>2014</v>
       </c>
@@ -4823,7 +4819,7 @@
       </c>
       <c r="G4" s="89"/>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="119">
         <v>2018</v>
       </c>
@@ -4844,7 +4840,7 @@
       </c>
       <c r="G5" s="89"/>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="118">
         <v>2022</v>
       </c>
@@ -4865,7 +4861,7 @@
       </c>
       <c r="G6" s="89"/>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="119">
         <v>2026</v>
       </c>
@@ -4886,7 +4882,7 @@
       </c>
       <c r="G7" s="89"/>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="118">
         <v>2030</v>
       </c>
@@ -4907,7 +4903,7 @@
       </c>
       <c r="G8" s="89"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -4925,18 +4921,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>123</v>
       </c>
@@ -4944,7 +4940,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="97">
         <v>10004</v>
       </c>
@@ -4952,7 +4948,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="98">
         <v>10005</v>
       </c>
@@ -4960,7 +4956,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="97">
         <v>10006</v>
       </c>
@@ -4968,7 +4964,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="98">
         <v>10007</v>
       </c>
@@ -4976,12 +4972,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="83"/>
     </row>
   </sheetData>
@@ -4997,67 +4993,67 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.453125" customWidth="1"/>
+    <col min="1" max="1" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="38" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="205" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="206" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="207" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="206" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="206" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="206" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="50.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="208" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="50.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="205" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="208" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="206" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>136</v>
       </c>
@@ -5075,20 +5071,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="72" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="72" customWidth="1"/>
-    <col min="3" max="3" width="41.81640625" style="72" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="72"/>
+    <col min="1" max="1" width="13.5703125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="72" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" style="72" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="108"/>
       <c r="B2" s="108" t="s">
         <v>138</v>
@@ -5097,7 +5093,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="102" t="s">
         <v>140</v>
       </c>
@@ -5108,7 +5104,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="103" t="s">
         <v>143</v>
       </c>
@@ -5119,7 +5115,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="102" t="s">
         <v>146</v>
       </c>
@@ -5130,7 +5126,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="104" t="s">
         <v>149</v>
       </c>
@@ -5141,7 +5137,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="102" t="s">
         <v>152</v>
       </c>
@@ -5152,7 +5148,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
@@ -5168,30 +5164,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="6" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="6" width="4.7109375" customWidth="1"/>
     <col min="7" max="7" width="18" style="111" customWidth="1"/>
-    <col min="8" max="8" width="28.26953125" style="111" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="242" t="s">
+      <c r="B2" s="238" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="243"/>
-      <c r="E2" s="243"/>
-      <c r="F2" s="244"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="240"/>
       <c r="G2" s="69" t="s">
         <v>158</v>
       </c>
@@ -5199,7 +5195,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
       <c r="B3" s="112" t="s">
         <v>160</v>
@@ -5219,7 +5215,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="67"/>
     </row>
-    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
         <v>165</v>
       </c>
@@ -5243,7 +5239,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="122" t="s">
         <v>170</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>172</v>
       </c>
@@ -5291,7 +5287,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
         <v>173</v>
       </c>
@@ -5313,7 +5309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="121" t="s">
         <v>175</v>
       </c>
@@ -5335,7 +5331,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="122" t="s">
         <v>178</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="s">
         <v>180</v>
       </c>
@@ -5379,19 +5375,19 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="245" t="s">
+    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="241" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="245"/>
-      <c r="G11" s="245"/>
-      <c r="H11" s="245"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="241"/>
+      <c r="C11" s="241"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="241"/>
+      <c r="H11" s="241"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="109" t="s">
         <v>115</v>
       </c>
@@ -5413,19 +5409,19 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>11</v>
       </c>
@@ -5436,7 +5432,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="118">
         <v>2009</v>
       </c>
@@ -5447,7 +5443,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="119">
         <v>2010</v>
       </c>
@@ -5458,7 +5454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="118">
         <v>2011</v>
       </c>
@@ -5469,7 +5465,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="119">
         <v>2012</v>
       </c>
@@ -5480,7 +5476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="118">
         <v>2013</v>
       </c>
@@ -5491,7 +5487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="119">
         <v>2014</v>
       </c>
@@ -5502,7 +5498,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="118">
         <v>2015</v>
       </c>
@@ -5513,7 +5509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="117" t="s">
         <v>185</v>
       </c>
@@ -5531,17 +5527,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="212" t="s">
         <v>11</v>
       </c>
@@ -5549,7 +5545,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="123">
         <v>2009</v>
       </c>
@@ -5557,7 +5553,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="124">
         <v>2010</v>
       </c>
@@ -5565,7 +5561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="123">
         <v>2011</v>
       </c>
@@ -5573,7 +5569,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="124">
         <v>2012</v>
       </c>
@@ -5581,7 +5577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="123">
         <v>2013</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="124">
         <v>2014</v>
       </c>
@@ -5597,7 +5593,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="123">
         <v>2015</v>
       </c>
@@ -5605,7 +5601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>185</v>
       </c>
@@ -5623,17 +5619,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>190</v>
       </c>
@@ -5653,7 +5649,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>196</v>
       </c>
@@ -5673,7 +5669,7 @@
         <v>26162.799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>197</v>
       </c>
@@ -5693,7 +5689,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>198</v>
       </c>
@@ -5713,7 +5709,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>199</v>
       </c>
@@ -5733,7 +5729,7 @@
         <v>14325.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>200</v>
       </c>
@@ -5753,7 +5749,7 @@
         <v>3376.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>201</v>
       </c>
@@ -5773,7 +5769,7 @@
         <v>6357.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="s">
         <v>202</v>
       </c>
@@ -5793,7 +5789,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="79" t="s">
         <v>203</v>
       </c>
@@ -5813,7 +5809,7 @@
         <v>1397.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
         <v>204</v>
       </c>
@@ -5833,7 +5829,7 @@
         <v>472.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="125" t="s">
         <v>205</v>
       </c>
@@ -5851,22 +5847,22 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>11</v>
       </c>
@@ -5889,7 +5885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="182">
         <v>2009</v>
       </c>
@@ -5912,7 +5908,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="183">
         <v>2010</v>
       </c>
@@ -5935,7 +5931,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="182">
         <v>2011</v>
       </c>
@@ -5958,7 +5954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="183">
         <v>2012</v>
       </c>
@@ -5981,7 +5977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="182">
         <v>2013</v>
       </c>
@@ -6004,7 +6000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="183">
         <v>2014</v>
       </c>
@@ -6027,7 +6023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="182">
         <v>2015</v>
       </c>
@@ -6050,7 +6046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="46" t="s">
         <v>26</v>
       </c>
@@ -6068,19 +6064,19 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
@@ -6100,7 +6096,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="123" t="s">
         <v>209</v>
       </c>
@@ -6120,7 +6116,7 @@
         <v>11110.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="124" t="s">
         <v>210</v>
       </c>
@@ -6140,7 +6136,7 @@
         <v>3376.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="123" t="s">
         <v>211</v>
       </c>
@@ -6160,7 +6156,7 @@
         <v>2386.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="124" t="s">
         <v>212</v>
       </c>
@@ -6180,7 +6176,7 @@
         <v>462.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
         <v>213</v>
       </c>
@@ -6200,7 +6196,7 @@
         <v>314.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="124" t="s">
         <v>214</v>
       </c>
@@ -6220,7 +6216,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
         <v>215</v>
       </c>
@@ -6240,7 +6236,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="124" t="s">
         <v>216</v>
       </c>
@@ -6260,7 +6256,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="123" t="s">
         <v>217</v>
       </c>
@@ -6280,7 +6276,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="124" t="s">
         <v>218</v>
       </c>
@@ -6300,7 +6296,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
         <v>219</v>
       </c>
@@ -6320,7 +6316,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="124" t="s">
         <v>220</v>
       </c>
@@ -6340,7 +6336,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="123" t="s">
         <v>221</v>
       </c>
@@ -6360,7 +6356,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
         <v>222</v>
       </c>
@@ -6380,7 +6376,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="123" t="s">
         <v>223</v>
       </c>
@@ -6400,7 +6396,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="124" t="s">
         <v>224</v>
       </c>
@@ -6420,7 +6416,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="123" t="s">
         <v>225</v>
       </c>
@@ -6440,7 +6436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="124" t="s">
         <v>226</v>
       </c>
@@ -6460,7 +6456,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="123" t="s">
         <v>227</v>
       </c>
@@ -6480,7 +6476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="124" t="s">
         <v>228</v>
       </c>
@@ -6500,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="123" t="s">
         <v>229</v>
       </c>
@@ -6520,7 +6516,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>205</v>
       </c>
@@ -6539,20 +6535,20 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>231</v>
       </c>
@@ -6575,7 +6571,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="123" t="s">
         <v>236</v>
       </c>
@@ -6598,7 +6594,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="124" t="s">
         <v>238</v>
       </c>
@@ -6621,7 +6617,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="123" t="s">
         <v>239</v>
       </c>
@@ -6644,7 +6640,7 @@
         <v>8763</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="124" t="s">
         <v>240</v>
       </c>
@@ -6667,7 +6663,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="123" t="s">
         <v>241</v>
       </c>
@@ -6690,7 +6686,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="124" t="s">
         <v>243</v>
       </c>
@@ -6713,7 +6709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="123" t="s">
         <v>244</v>
       </c>
@@ -6736,7 +6732,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="124" t="s">
         <v>245</v>
       </c>
@@ -6759,7 +6755,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="123" t="s">
         <v>246</v>
       </c>
@@ -6782,7 +6778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="124" t="s">
         <v>248</v>
       </c>
@@ -6805,7 +6801,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
         <v>249</v>
       </c>
@@ -6828,7 +6824,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="124" t="s">
         <v>251</v>
       </c>
@@ -6851,7 +6847,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="123" t="s">
         <v>252</v>
       </c>
@@ -6874,7 +6870,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="124" t="s">
         <v>253</v>
       </c>
@@ -6897,7 +6893,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>205</v>
       </c>
@@ -6915,18 +6911,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" style="110" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="110" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
         <v>255</v>
       </c>
@@ -6934,25 +6930,25 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="79"/>
       <c r="B3" s="133" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="79"/>
       <c r="B4" s="133" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="79"/>
       <c r="B5" s="133" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>260</v>
       </c>
@@ -6960,7 +6956,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>262</v>
       </c>
@@ -6968,7 +6964,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>264</v>
       </c>
@@ -6977,7 +6973,7 @@
       </c>
       <c r="D8" s="135"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="109" t="s">
         <v>266</v>
       </c>
@@ -6995,18 +6991,18 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.81640625" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
         <v>268</v>
       </c>
@@ -7014,7 +7010,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
         <v>270</v>
       </c>
@@ -7022,7 +7018,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>271</v>
       </c>
@@ -7030,7 +7026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
         <v>272</v>
       </c>
@@ -7038,7 +7034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>273</v>
       </c>
@@ -7046,7 +7042,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="115" t="s">
         <v>50</v>
       </c>
@@ -7054,7 +7050,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>274</v>
       </c>
@@ -7070,35 +7066,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="137"/>
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="242" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="247"/>
-      <c r="D2" s="246" t="s">
+      <c r="C2" s="243"/>
+      <c r="D2" s="242" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="247"/>
-      <c r="F2" s="248" t="s">
+      <c r="E2" s="243"/>
+      <c r="F2" s="244" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="248"/>
-    </row>
-    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.35">
+      <c r="G2" s="244"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="137" t="s">
         <v>86</v>
       </c>
@@ -7121,7 +7117,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="136" t="s">
         <v>94</v>
       </c>
@@ -7138,7 +7134,7 @@
       </c>
       <c r="G4" s="75"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="141" t="s">
         <v>93</v>
       </c>
@@ -7157,7 +7153,7 @@
       </c>
       <c r="G5" s="76"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="136" t="s">
         <v>92</v>
       </c>
@@ -7174,7 +7170,7 @@
       </c>
       <c r="G6" s="75"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="141" t="s">
         <v>95</v>
       </c>
@@ -7193,7 +7189,7 @@
       </c>
       <c r="G7" s="76"/>
     </row>
-    <row r="8" spans="1:7" s="139" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" s="139" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="136" t="s">
         <v>96</v>
       </c>
@@ -7212,7 +7208,7 @@
       </c>
       <c r="G8" s="75"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="141" t="s">
         <v>281</v>
       </c>
@@ -7249,17 +7245,17 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="69.54296875" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="147" t="s">
         <v>283</v>
       </c>
@@ -7267,7 +7263,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="148" t="s">
         <v>285</v>
       </c>
@@ -7275,7 +7271,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="147" t="s">
         <v>287</v>
       </c>
@@ -7283,7 +7279,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="148" t="s">
         <v>289</v>
       </c>
@@ -7291,7 +7287,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="147" t="s">
         <v>291</v>
       </c>
@@ -7299,7 +7295,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="148" t="s">
         <v>293</v>
       </c>
@@ -7307,7 +7303,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="147" t="s">
         <v>294</v>
       </c>
@@ -7315,7 +7311,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
@@ -7333,18 +7329,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="136" t="s">
         <v>299</v>
       </c>
@@ -7352,7 +7348,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="141" t="s">
         <v>301</v>
       </c>
@@ -7360,7 +7356,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="136" t="s">
         <v>303</v>
       </c>
@@ -7368,7 +7364,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="141" t="s">
         <v>305</v>
       </c>
@@ -7376,7 +7372,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>307</v>
       </c>
@@ -7394,18 +7390,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.26953125" customWidth="1"/>
-    <col min="2" max="2" width="59.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>309</v>
       </c>
@@ -7413,7 +7409,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="140" t="s">
         <v>311</v>
       </c>
@@ -7421,7 +7417,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>313</v>
       </c>
@@ -7429,7 +7425,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="140" t="s">
         <v>315</v>
       </c>
@@ -7437,7 +7433,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>317</v>
       </c>
@@ -7455,19 +7451,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
         <v>331</v>
       </c>
@@ -7478,7 +7474,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
         <v>321</v>
       </c>
@@ -7489,7 +7485,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>324</v>
       </c>
@@ -7500,7 +7496,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
         <v>327</v>
       </c>
@@ -7511,7 +7507,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>329</v>
       </c>
@@ -7522,7 +7518,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -7540,22 +7536,22 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="137" t="s">
         <v>331</v>
       </c>
@@ -7575,7 +7571,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="115" t="s">
         <v>324</v>
       </c>
@@ -7595,7 +7591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A4" s="116" t="s">
         <v>338</v>
       </c>
@@ -7615,7 +7611,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="115" t="s">
         <v>344</v>
       </c>
@@ -7635,7 +7631,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -7651,18 +7647,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="185" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
@@ -7670,7 +7666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>20</v>
       </c>
@@ -7678,7 +7674,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>22</v>
       </c>
@@ -7686,7 +7682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>23</v>
       </c>
@@ -7694,7 +7690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>24</v>
       </c>
@@ -7715,57 +7711,57 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.453125" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>356</v>
       </c>
@@ -7783,52 +7779,52 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>364</v>
       </c>
@@ -7844,72 +7840,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.1796875" customWidth="1"/>
+    <col min="1" max="1" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="218" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="218" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="218" t="s">
         <v>377</v>
       </c>
@@ -7925,87 +7921,87 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="218" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="218" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="218" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="218" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="218" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="218" t="s">
         <v>393</v>
       </c>
@@ -8021,57 +8017,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.81640625" customWidth="1"/>
+    <col min="1" max="1" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="219" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="219" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="219" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="219" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="219" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="219" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="219" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="219" t="s">
         <v>403</v>
       </c>
@@ -8087,57 +8083,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>403</v>
       </c>
@@ -8153,57 +8149,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7265625" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>419</v>
       </c>
@@ -8219,47 +8215,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>426</v>
       </c>
@@ -8275,47 +8271,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>434</v>
       </c>
@@ -8331,62 +8327,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.453125" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="218" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="218" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="218" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="218" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="218" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="218" t="s">
         <v>445</v>
       </c>
@@ -8404,18 +8400,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>28</v>
       </c>
@@ -8423,7 +8419,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>20</v>
       </c>
@@ -8431,25 +8427,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="49"/>
       <c r="B4" s="59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49"/>
       <c r="B5" s="59" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="49"/>
       <c r="B6" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>22</v>
       </c>
@@ -8457,13 +8453,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="50"/>
       <c r="B8" s="60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>23</v>
       </c>
@@ -8471,19 +8467,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="49"/>
       <c r="B10" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>24</v>
       </c>
@@ -8491,13 +8487,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="50"/>
       <c r="B13" s="60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="52" t="s">
         <v>37</v>
       </c>
@@ -8513,27 +8509,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="153" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>449</v>
       </c>
@@ -8549,32 +8545,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.54296875" customWidth="1"/>
+    <col min="1" max="1" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="96" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="218" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="218" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="218" t="s">
         <v>454</v>
       </c>
@@ -8590,42 +8586,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.7265625" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="220" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="221" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="221" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="221" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="221" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="221" t="s">
         <v>461</v>
       </c>
@@ -8641,47 +8637,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="222" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="223" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="223" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="223" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="223" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="223" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="223" t="s">
         <v>469</v>
       </c>
@@ -8697,42 +8693,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7265625" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="154" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="156" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="155" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="155" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="155" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="155" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="155" t="s">
         <v>476</v>
       </c>
@@ -8748,27 +8744,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.26953125" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="224" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="225" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="62" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="225" t="s">
         <v>480</v>
       </c>
@@ -8786,32 +8782,32 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7265625" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="224" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="225" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="225" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="225" t="s">
         <v>485</v>
       </c>
@@ -8827,42 +8823,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="154" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="224" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="225" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="225" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="225" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="225" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="225" t="s">
         <v>491</v>
       </c>
@@ -8880,18 +8876,18 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1796875" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="157" t="s">
         <v>493</v>
       </c>
@@ -8899,7 +8895,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="158" t="s">
         <v>495</v>
       </c>
@@ -8907,7 +8903,7 @@
         <v>5523.24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="160" t="s">
         <v>496</v>
       </c>
@@ -8915,7 +8911,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="158" t="s">
         <v>497</v>
       </c>
@@ -8923,7 +8919,7 @@
         <v>3468.59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="162" t="s">
         <v>195</v>
       </c>
@@ -8932,7 +8928,7 @@
         <v>10791.83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="164" t="s">
         <v>115</v>
       </c>
@@ -8950,18 +8946,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="172" t="s">
         <v>499</v>
       </c>
@@ -8969,7 +8965,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="173" t="s">
         <v>501</v>
       </c>
@@ -8977,7 +8973,7 @@
         <v>65600</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="174" t="s">
         <v>502</v>
       </c>
@@ -8985,7 +8981,7 @@
         <v>65600</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
         <v>503</v>
       </c>
@@ -8993,7 +8989,7 @@
         <v>75152</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
         <v>504</v>
       </c>
@@ -9001,20 +8997,20 @@
         <v>75152</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="165"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="165" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="166"/>
     </row>
   </sheetData>
@@ -9028,18 +9024,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="2" max="2" width="64.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>39</v>
       </c>
@@ -9047,7 +9043,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="186" t="s">
         <v>40</v>
       </c>
@@ -9055,7 +9051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="187" t="s">
         <v>41</v>
       </c>
@@ -9063,7 +9059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="186" t="s">
         <v>42</v>
       </c>
@@ -9071,7 +9067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="187" t="s">
         <v>43</v>
       </c>
@@ -9079,7 +9075,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="186" t="s">
         <v>44</v>
       </c>
@@ -9087,7 +9083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="187" t="s">
         <v>45</v>
       </c>
@@ -9095,7 +9091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="186" t="s">
         <v>46</v>
       </c>
@@ -9103,7 +9099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="187" t="s">
         <v>47</v>
       </c>
@@ -9111,7 +9107,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="186" t="s">
         <v>48</v>
       </c>
@@ -9119,7 +9115,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="187" t="s">
         <v>49</v>
       </c>
@@ -9127,7 +9123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="186" t="s">
         <v>50</v>
       </c>
@@ -9135,15 +9131,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="188"/>
       <c r="B14" s="45"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="45"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="45"/>
     </row>
@@ -9156,22 +9152,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0136C9A5-6554-4966-AE16-6265A5A2553A}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7265625" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="172" t="s">
         <v>493</v>
       </c>
@@ -9179,7 +9175,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="173" t="s">
         <v>495</v>
       </c>
@@ -9187,7 +9183,7 @@
         <v>5523.23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="174" t="s">
         <v>496</v>
       </c>
@@ -9195,7 +9191,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="173" t="s">
         <v>497</v>
       </c>
@@ -9203,7 +9199,7 @@
         <v>274.55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
         <v>195</v>
       </c>
@@ -9223,19 +9219,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="138" t="s">
         <v>509</v>
       </c>
@@ -9246,7 +9242,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="76" t="s">
         <v>510</v>
       </c>
@@ -9257,7 +9253,7 @@
         <v>9205.3799999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>511</v>
       </c>
@@ -9268,7 +9264,7 @@
         <v>7364.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="76" t="s">
         <v>512</v>
       </c>
@@ -9279,7 +9275,7 @@
         <v>1841.08</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="75" t="s">
         <v>513</v>
       </c>
@@ -9290,7 +9286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>514</v>
       </c>
@@ -9301,7 +9297,7 @@
         <v>7364.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>515</v>
       </c>
@@ -9312,7 +9308,7 @@
         <v>2502.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
         <v>195</v>
       </c>
@@ -9334,18 +9330,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>11</v>
       </c>
@@ -9353,7 +9349,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="182" t="s">
         <v>518</v>
       </c>
@@ -9361,7 +9357,7 @@
         <v>8580</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="183" t="s">
         <v>519</v>
       </c>
@@ -9369,7 +9365,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="182" t="s">
         <v>521</v>
       </c>
@@ -9377,7 +9373,7 @@
         <v>9228</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="183" t="s">
         <v>522</v>
       </c>
@@ -9385,7 +9381,7 @@
         <v>9559.56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="183" t="s">
         <v>524</v>
       </c>
@@ -9393,7 +9389,7 @@
         <v>9967.8700000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="184" t="s">
         <v>523</v>
       </c>
@@ -9411,14 +9407,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.54296875" style="89" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" style="227" customWidth="1"/>
-    <col min="3" max="3" width="56.08984375" style="89" customWidth="1"/>
+    <col min="1" max="1" width="47.5703125" style="89" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="227" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>564</v>
       </c>
@@ -25806,7 +25802,7 @@
       <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
-    <row r="2" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="232" t="s">
         <v>537</v>
       </c>
@@ -25817,7 +25813,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="228" t="s">
         <v>540</v>
       </c>
@@ -25828,7 +25824,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="230" t="s">
         <v>543</v>
       </c>
@@ -25839,7 +25835,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="228" t="s">
         <v>545</v>
       </c>
@@ -25850,7 +25846,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="230" t="s">
         <v>546</v>
       </c>
@@ -25861,7 +25857,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="228" t="s">
         <v>552</v>
       </c>
@@ -25872,7 +25868,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="230" t="s">
         <v>548</v>
       </c>
@@ -25883,7 +25879,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="228" t="s">
         <v>551</v>
       </c>
@@ -25894,7 +25890,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="230" t="s">
         <v>561</v>
       </c>
@@ -25905,7 +25901,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="228" t="s">
         <v>562</v>
       </c>
@@ -25916,7 +25912,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="230" t="s">
         <v>553</v>
       </c>
@@ -25927,7 +25923,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="228" t="s">
         <v>555</v>
       </c>
@@ -25938,7 +25934,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="230" t="s">
         <v>557</v>
       </c>
@@ -25957,58 +25953,61 @@
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A23A79C-F720-4065-9056-D02F2AF122BD}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.90625" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="234" t="s">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="247" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="235">
+      <c r="B1" s="245">
         <v>16130560</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="236" t="s">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="248" t="s">
         <v>534</v>
       </c>
-      <c r="B2" s="237">
+      <c r="B2" s="246">
         <v>431440</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="247" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="235">
+      <c r="B3" s="245">
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="236" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="248" t="s">
         <v>536</v>
       </c>
-      <c r="B4" s="238">
+      <c r="B4" s="234">
         <f>SUM(B1:B3)</f>
         <v>17062000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="72"/>
       <c r="B5" s="226"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="72"/>
       <c r="B6" s="226"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" s="249"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -26024,19 +26023,19 @@
       <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>81</v>
       </c>
@@ -26053,7 +26052,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="193" t="s">
         <v>66</v>
       </c>
@@ -26070,7 +26069,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="192" t="s">
         <v>67</v>
       </c>
@@ -26087,7 +26086,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="193" t="s">
         <v>68</v>
       </c>
@@ -26104,7 +26103,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="192" t="s">
         <v>69</v>
       </c>
@@ -26121,7 +26120,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="193" t="s">
         <v>70</v>
       </c>
@@ -26138,7 +26137,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="192" t="s">
         <v>71</v>
       </c>
@@ -26155,7 +26154,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="193" t="s">
         <v>72</v>
       </c>
@@ -26172,7 +26171,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="192" t="s">
         <v>73</v>
       </c>
@@ -26189,7 +26188,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="193" t="s">
         <v>74</v>
       </c>
@@ -26206,7 +26205,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="192" t="s">
         <v>75</v>
       </c>
@@ -26223,7 +26222,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="193" t="s">
         <v>76</v>
       </c>
@@ -26240,16 +26239,16 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="239" t="s">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="235" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="239"/>
-      <c r="C14" s="239"/>
-      <c r="D14" s="239"/>
-      <c r="E14" s="239"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="235"/>
+      <c r="C14" s="235"/>
+      <c r="D14" s="235"/>
+      <c r="E14" s="235"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>64</v>
       </c>
@@ -26269,17 +26268,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="86" t="s">
         <v>84</v>
       </c>
@@ -26296,7 +26295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="86" t="s">
         <v>83</v>
       </c>
@@ -26313,7 +26312,7 @@
         <v>138.15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="64" t="s">
         <v>64</v>
       </c>
@@ -26333,18 +26332,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" customWidth="1"/>
-    <col min="2" max="5" width="15.7265625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="117" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>86</v>
       </c>
@@ -26361,7 +26360,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>91</v>
       </c>
@@ -26378,7 +26377,7 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>92</v>
       </c>
@@ -26395,7 +26394,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>93</v>
       </c>
@@ -26412,7 +26411,7 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>94</v>
       </c>
@@ -26429,7 +26428,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>95</v>
       </c>
@@ -26446,7 +26445,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>96</v>
       </c>
@@ -26463,16 +26462,16 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="240" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="236" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="236"/>
+      <c r="C9" s="236"/>
+      <c r="D9" s="236"/>
+      <c r="E9" s="236"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -26491,19 +26490,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="2" max="2" width="46.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="72"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>39</v>
       </c>
@@ -26511,7 +26510,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>102</v>
       </c>
@@ -26519,7 +26518,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>68</v>
       </c>
@@ -26527,7 +26526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>42</v>
       </c>
@@ -26535,7 +26534,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>43</v>
       </c>
@@ -26543,7 +26542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>44</v>
       </c>
@@ -26551,7 +26550,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>45</v>
       </c>
@@ -26559,7 +26558,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>46</v>
       </c>
@@ -26567,7 +26566,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>100</v>
       </c>
@@ -26575,7 +26574,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
         <v>101</v>
       </c>
@@ -26583,7 +26582,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>50</v>
       </c>
@@ -26591,15 +26590,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="83"/>
       <c r="B13" s="72"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="84"/>
       <c r="B14" s="72"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="83"/>
       <c r="B15" s="72"/>
     </row>

--- a/produtos/prodtres/tabelas_p3.xlsx
+++ b/produtos/prodtres/tabelas_p3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TalitaGuerra\Documents\GitHub\latex_PMGIRS\produtos\prodtres\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liks9\Google Drive\GitHub\latex_PMGIRS\produtos\prodtres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E682A9C5-4629-4FC1-9811-9205D9BAF121}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF431D1B-24B3-4882-A300-FAFF06560C87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="48" activeTab="53" xr2:uid="{DF05E89E-9300-429A-8C29-7CC11C03DA89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="49" activeTab="54" xr2:uid="{DF05E89E-9300-429A-8C29-7CC11C03DA89}"/>
   </bookViews>
   <sheets>
     <sheet name="cobertura_coleta" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,7 @@
     <sheet name="valor_contratual" sheetId="52" r:id="rId52"/>
     <sheet name="acoes_prevent" sheetId="54" r:id="rId53"/>
     <sheet name="acoes_emerg" sheetId="53" r:id="rId54"/>
+    <sheet name="oficinas" sheetId="55" r:id="rId55"/>
   </sheets>
   <definedNames>
     <definedName name="_Hlk500792227" localSheetId="49">gasto_reciclavel!$A$2</definedName>
@@ -107,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="579">
   <si>
     <t>BRASIL (%)</t>
   </si>
@@ -2115,16 +2116,58 @@
   <si>
     <t>Tabela - Ações Preventivas e Corretivas de Monteiro Lobato</t>
   </si>
+  <si>
+    <t>Público alvo</t>
+  </si>
+  <si>
+    <t>Número de participantes</t>
+  </si>
+  <si>
+    <t>Realização</t>
+  </si>
+  <si>
+    <t>Professores da rede pública</t>
+  </si>
+  <si>
+    <t>27 de agosto de 2018</t>
+  </si>
+  <si>
+    <t>Representantes do COMTUR</t>
+  </si>
+  <si>
+    <t>Cancelada</t>
+  </si>
+  <si>
+    <t>Moradores do Bairro Centro</t>
+  </si>
+  <si>
+    <t>10 de outubro de 2018</t>
+  </si>
+  <si>
+    <t>Moradores do Bairro Souzas</t>
+  </si>
+  <si>
+    <t>17 de outubro de 2018</t>
+  </si>
+  <si>
+    <t>Moradores do Bairro São Benedito</t>
+  </si>
+  <si>
+    <t>24 de outubro de 2018</t>
+  </si>
+  <si>
+    <t>31 de outubro de 2018</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;[Red]\-&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="54" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2476,6 +2519,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -2763,9 +2812,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3227,19 +3276,19 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3255,13 +3304,13 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3273,13 +3322,13 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3426,7 +3475,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3448,9 +3497,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="50" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="49" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="49" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3481,19 +3543,18 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="49" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -3815,17 +3876,17 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="33"/>
       <c r="B2" s="9">
         <v>2000</v>
@@ -3856,7 +3917,7 @@
       </c>
       <c r="K2" s="15"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -3889,7 +3950,7 @@
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -3922,7 +3983,7 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -3955,7 +4016,7 @@
       </c>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -3988,7 +4049,7 @@
       </c>
       <c r="K6" s="17"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -4021,7 +4082,7 @@
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -4054,7 +4115,7 @@
       </c>
       <c r="K8" s="17"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -4087,7 +4148,7 @@
       </c>
       <c r="K9" s="17"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>1</v>
       </c>
@@ -4120,7 +4181,7 @@
       </c>
       <c r="K10" s="32"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -4153,7 +4214,7 @@
       </c>
       <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
@@ -4186,7 +4247,7 @@
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -4219,7 +4280,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
@@ -4252,7 +4313,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>7</v>
       </c>
@@ -4285,7 +4346,7 @@
       </c>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>1</v>
       </c>
@@ -4318,7 +4379,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
@@ -4351,7 +4412,7 @@
       </c>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
@@ -4384,7 +4445,7 @@
       </c>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>1</v>
       </c>
@@ -4417,7 +4478,7 @@
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -4450,7 +4511,7 @@
       </c>
       <c r="K20" s="22"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -4470,17 +4531,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>81</v>
       </c>
@@ -4494,7 +4555,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="118" t="s">
         <v>107</v>
       </c>
@@ -4508,7 +4569,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="119" t="s">
         <v>75</v>
       </c>
@@ -4522,7 +4583,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="118" t="s">
         <v>71</v>
       </c>
@@ -4536,7 +4597,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="119" t="s">
         <v>69</v>
       </c>
@@ -4550,7 +4611,7 @@
         <v>0.107</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="118" t="s">
         <v>108</v>
       </c>
@@ -4564,7 +4625,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="119" t="s">
         <v>76</v>
       </c>
@@ -4578,7 +4639,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="118" t="s">
         <v>68</v>
       </c>
@@ -4592,7 +4653,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="119" t="s">
         <v>66</v>
       </c>
@@ -4606,7 +4667,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="118" t="s">
         <v>109</v>
       </c>
@@ -4620,7 +4681,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="119" t="s">
         <v>110</v>
       </c>
@@ -4634,7 +4695,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="118" t="s">
         <v>101</v>
       </c>
@@ -4648,7 +4709,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="119" t="s">
         <v>67</v>
       </c>
@@ -4662,13 +4723,13 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="237" t="s">
+    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="242" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="237"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
+      <c r="B15" s="242"/>
+      <c r="C15" s="242"/>
+      <c r="D15" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4684,17 +4745,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>84</v>
       </c>
@@ -4708,7 +4769,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="86" t="s">
         <v>83</v>
       </c>
@@ -4722,7 +4783,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="88" t="s">
         <v>115</v>
       </c>
@@ -4741,22 +4802,22 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="93" t="s">
         <v>526</v>
       </c>
@@ -4777,7 +4838,7 @@
       </c>
       <c r="G2" s="89"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="119">
         <v>2010</v>
       </c>
@@ -4798,7 +4859,7 @@
       </c>
       <c r="G3" s="89"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="118">
         <v>2014</v>
       </c>
@@ -4819,7 +4880,7 @@
       </c>
       <c r="G4" s="89"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="119">
         <v>2018</v>
       </c>
@@ -4840,7 +4901,7 @@
       </c>
       <c r="G5" s="89"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="118">
         <v>2022</v>
       </c>
@@ -4861,7 +4922,7 @@
       </c>
       <c r="G6" s="89"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="119">
         <v>2026</v>
       </c>
@@ -4882,7 +4943,7 @@
       </c>
       <c r="G7" s="89"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="118">
         <v>2030</v>
       </c>
@@ -4903,7 +4964,7 @@
       </c>
       <c r="G8" s="89"/>
     </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>121</v>
       </c>
@@ -4921,18 +4982,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
         <v>123</v>
       </c>
@@ -4940,7 +5001,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="97">
         <v>10004</v>
       </c>
@@ -4948,7 +5009,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="98">
         <v>10005</v>
       </c>
@@ -4956,7 +5017,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="97">
         <v>10006</v>
       </c>
@@ -4964,7 +5025,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="98">
         <v>10007</v>
       </c>
@@ -4972,12 +5033,12 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="83"/>
     </row>
   </sheetData>
@@ -4993,67 +5054,67 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.42578125" customWidth="1"/>
+    <col min="1" max="1" width="64.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="99" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="38" x14ac:dyDescent="0.35">
       <c r="A2" s="205" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="206" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="207" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="206" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A6" s="206" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="206" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="50.5" x14ac:dyDescent="0.35">
       <c r="A8" s="208" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="50.5" x14ac:dyDescent="0.35">
       <c r="A9" s="205" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="38" x14ac:dyDescent="0.35">
       <c r="A10" s="208" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="206" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>136</v>
       </c>
@@ -5071,20 +5132,20 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="72" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="72" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="72"/>
+    <col min="1" max="1" width="13.54296875" style="72" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="72" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" style="72" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="108"/>
       <c r="B2" s="108" t="s">
         <v>138</v>
@@ -5093,7 +5154,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="50" x14ac:dyDescent="0.35">
       <c r="A3" s="102" t="s">
         <v>140</v>
       </c>
@@ -5104,7 +5165,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="50" x14ac:dyDescent="0.35">
       <c r="A4" s="103" t="s">
         <v>143</v>
       </c>
@@ -5115,7 +5176,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="102" t="s">
         <v>146</v>
       </c>
@@ -5126,7 +5187,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A6" s="104" t="s">
         <v>149</v>
       </c>
@@ -5137,7 +5198,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="50" x14ac:dyDescent="0.35">
       <c r="A7" s="102" t="s">
         <v>152</v>
       </c>
@@ -5148,7 +5209,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>155</v>
       </c>
@@ -5164,30 +5225,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="6" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="6" width="4.7265625" customWidth="1"/>
     <col min="7" max="7" width="18" style="111" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="111" customWidth="1"/>
+    <col min="8" max="8" width="28.26953125" style="111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="120" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="243" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="240"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="245"/>
       <c r="G2" s="69" t="s">
         <v>158</v>
       </c>
@@ -5195,7 +5256,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="209"/>
       <c r="B3" s="112" t="s">
         <v>160</v>
@@ -5215,7 +5276,7 @@
       <c r="G3" s="69"/>
       <c r="H3" s="67"/>
     </row>
-    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A4" s="121" t="s">
         <v>165</v>
       </c>
@@ -5239,7 +5300,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A5" s="122" t="s">
         <v>170</v>
       </c>
@@ -5263,7 +5324,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.35">
       <c r="A6" s="121" t="s">
         <v>172</v>
       </c>
@@ -5287,7 +5348,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="122" t="s">
         <v>173</v>
       </c>
@@ -5309,7 +5370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="50" x14ac:dyDescent="0.35">
       <c r="A8" s="121" t="s">
         <v>175</v>
       </c>
@@ -5331,7 +5392,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A9" s="122" t="s">
         <v>178</v>
       </c>
@@ -5353,7 +5414,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="121" t="s">
         <v>180</v>
       </c>
@@ -5375,19 +5436,19 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="241" t="s">
+    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="246" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="241"/>
-      <c r="C11" s="241"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="241"/>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="246"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="109" t="s">
         <v>115</v>
       </c>
@@ -5409,19 +5470,19 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>11</v>
       </c>
@@ -5432,7 +5493,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="118">
         <v>2009</v>
       </c>
@@ -5443,7 +5504,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="119">
         <v>2010</v>
       </c>
@@ -5454,7 +5515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="118">
         <v>2011</v>
       </c>
@@ -5465,7 +5526,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="119">
         <v>2012</v>
       </c>
@@ -5476,7 +5537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="118">
         <v>2013</v>
       </c>
@@ -5487,7 +5548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="119">
         <v>2014</v>
       </c>
@@ -5498,7 +5559,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="118">
         <v>2015</v>
       </c>
@@ -5509,7 +5570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="117" t="s">
         <v>185</v>
       </c>
@@ -5527,17 +5588,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A2" s="212" t="s">
         <v>11</v>
       </c>
@@ -5545,7 +5606,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="123">
         <v>2009</v>
       </c>
@@ -5553,7 +5614,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="124">
         <v>2010</v>
       </c>
@@ -5561,7 +5622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="123">
         <v>2011</v>
       </c>
@@ -5569,7 +5630,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="124">
         <v>2012</v>
       </c>
@@ -5577,7 +5638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="123">
         <v>2013</v>
       </c>
@@ -5585,7 +5646,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="124">
         <v>2014</v>
       </c>
@@ -5593,7 +5654,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="123">
         <v>2015</v>
       </c>
@@ -5601,7 +5662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>185</v>
       </c>
@@ -5619,17 +5680,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="39" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>190</v>
       </c>
@@ -5649,7 +5710,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="77" t="s">
         <v>196</v>
       </c>
@@ -5669,7 +5730,7 @@
         <v>26162.799999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="79" t="s">
         <v>197</v>
       </c>
@@ -5689,7 +5750,7 @@
         <v>79.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="77" t="s">
         <v>198</v>
       </c>
@@ -5709,7 +5770,7 @@
         <v>84.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="79" t="s">
         <v>199</v>
       </c>
@@ -5729,7 +5790,7 @@
         <v>14325.6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="77" t="s">
         <v>200</v>
       </c>
@@ -5749,7 +5810,7 @@
         <v>3376.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="79" t="s">
         <v>201</v>
       </c>
@@ -5769,7 +5830,7 @@
         <v>6357.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="77" t="s">
         <v>202</v>
       </c>
@@ -5789,7 +5850,7 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="79" t="s">
         <v>203</v>
       </c>
@@ -5809,7 +5870,7 @@
         <v>1397.9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="77" t="s">
         <v>204</v>
       </c>
@@ -5829,7 +5890,7 @@
         <v>472.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="125" t="s">
         <v>205</v>
       </c>
@@ -5847,22 +5908,22 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>11</v>
       </c>
@@ -5885,7 +5946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="182">
         <v>2009</v>
       </c>
@@ -5908,7 +5969,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="183">
         <v>2010</v>
       </c>
@@ -5931,7 +5992,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="182">
         <v>2011</v>
       </c>
@@ -5954,7 +6015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="183">
         <v>2012</v>
       </c>
@@ -5977,7 +6038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="182">
         <v>2013</v>
       </c>
@@ -6000,7 +6061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="183">
         <v>2014</v>
       </c>
@@ -6023,7 +6084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="182">
         <v>2015</v>
       </c>
@@ -6046,7 +6107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="46" t="s">
         <v>26</v>
       </c>
@@ -6064,19 +6125,19 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>207</v>
       </c>
@@ -6096,7 +6157,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="123" t="s">
         <v>209</v>
       </c>
@@ -6116,7 +6177,7 @@
         <v>11110.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="124" t="s">
         <v>210</v>
       </c>
@@ -6136,7 +6197,7 @@
         <v>3376.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="123" t="s">
         <v>211</v>
       </c>
@@ -6156,7 +6217,7 @@
         <v>2386.4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="124" t="s">
         <v>212</v>
       </c>
@@ -6176,7 +6237,7 @@
         <v>462.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="123" t="s">
         <v>213</v>
       </c>
@@ -6196,7 +6257,7 @@
         <v>314.3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="124" t="s">
         <v>214</v>
       </c>
@@ -6216,7 +6277,7 @@
         <v>50.8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="123" t="s">
         <v>215</v>
       </c>
@@ -6236,7 +6297,7 @@
         <v>38.1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="124" t="s">
         <v>216</v>
       </c>
@@ -6256,7 +6317,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="123" t="s">
         <v>217</v>
       </c>
@@ -6276,7 +6337,7 @@
         <v>23.4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="124" t="s">
         <v>218</v>
       </c>
@@ -6296,7 +6357,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="123" t="s">
         <v>219</v>
       </c>
@@ -6316,7 +6377,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="124" t="s">
         <v>220</v>
       </c>
@@ -6336,7 +6397,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="123" t="s">
         <v>221</v>
       </c>
@@ -6356,7 +6417,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="124" t="s">
         <v>222</v>
       </c>
@@ -6376,7 +6437,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="123" t="s">
         <v>223</v>
       </c>
@@ -6396,7 +6457,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="124" t="s">
         <v>224</v>
       </c>
@@ -6416,7 +6477,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="123" t="s">
         <v>225</v>
       </c>
@@ -6436,7 +6497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="124" t="s">
         <v>226</v>
       </c>
@@ -6456,7 +6517,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="123" t="s">
         <v>227</v>
       </c>
@@ -6476,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="124" t="s">
         <v>228</v>
       </c>
@@ -6496,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="123" t="s">
         <v>229</v>
       </c>
@@ -6516,7 +6577,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>205</v>
       </c>
@@ -6535,20 +6596,20 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>231</v>
       </c>
@@ -6571,7 +6632,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="123" t="s">
         <v>236</v>
       </c>
@@ -6594,7 +6655,7 @@
         <v>3284</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="124" t="s">
         <v>238</v>
       </c>
@@ -6617,7 +6678,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="123" t="s">
         <v>239</v>
       </c>
@@ -6640,7 +6701,7 @@
         <v>8763</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="124" t="s">
         <v>240</v>
       </c>
@@ -6663,7 +6724,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="123" t="s">
         <v>241</v>
       </c>
@@ -6686,7 +6747,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="124" t="s">
         <v>243</v>
       </c>
@@ -6709,7 +6770,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="123" t="s">
         <v>244</v>
       </c>
@@ -6732,7 +6793,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="124" t="s">
         <v>245</v>
       </c>
@@ -6755,7 +6816,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="123" t="s">
         <v>246</v>
       </c>
@@ -6778,7 +6839,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="124" t="s">
         <v>248</v>
       </c>
@@ -6801,7 +6862,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="123" t="s">
         <v>249</v>
       </c>
@@ -6824,7 +6885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="124" t="s">
         <v>251</v>
       </c>
@@ -6847,7 +6908,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="123" t="s">
         <v>252</v>
       </c>
@@ -6870,7 +6931,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="124" t="s">
         <v>253</v>
       </c>
@@ -6893,7 +6954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>205</v>
       </c>
@@ -6911,18 +6972,18 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="110" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="110" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="79" t="s">
         <v>255</v>
       </c>
@@ -6930,25 +6991,25 @@
         <v>256</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="38" x14ac:dyDescent="0.35">
       <c r="A3" s="79"/>
       <c r="B3" s="133" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="38" x14ac:dyDescent="0.35">
       <c r="A4" s="79"/>
       <c r="B4" s="133" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="38" x14ac:dyDescent="0.35">
       <c r="A5" s="79"/>
       <c r="B5" s="133" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="25" x14ac:dyDescent="0.35">
       <c r="A6" s="77" t="s">
         <v>260</v>
       </c>
@@ -6956,7 +7017,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A7" s="79" t="s">
         <v>262</v>
       </c>
@@ -6964,7 +7025,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A8" s="77" t="s">
         <v>264</v>
       </c>
@@ -6973,7 +7034,7 @@
       </c>
       <c r="D8" s="135"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="109" t="s">
         <v>266</v>
       </c>
@@ -6991,18 +7052,18 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="1" max="1" width="56.81640625" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="137" t="s">
         <v>268</v>
       </c>
@@ -7010,7 +7071,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="115" t="s">
         <v>270</v>
       </c>
@@ -7018,7 +7079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" s="116" t="s">
         <v>271</v>
       </c>
@@ -7026,7 +7087,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="115" t="s">
         <v>272</v>
       </c>
@@ -7034,7 +7095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A6" s="116" t="s">
         <v>273</v>
       </c>
@@ -7042,7 +7103,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="115" t="s">
         <v>50</v>
       </c>
@@ -7050,7 +7111,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>274</v>
       </c>
@@ -7066,35 +7127,35 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="137"/>
-      <c r="B2" s="242" t="s">
+      <c r="B2" s="247" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="243"/>
-      <c r="D2" s="242" t="s">
+      <c r="C2" s="248"/>
+      <c r="D2" s="247" t="s">
         <v>277</v>
       </c>
-      <c r="E2" s="243"/>
-      <c r="F2" s="244" t="s">
+      <c r="E2" s="248"/>
+      <c r="F2" s="249" t="s">
         <v>278</v>
       </c>
-      <c r="G2" s="244"/>
-    </row>
-    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="249"/>
+    </row>
+    <row r="3" spans="1:7" ht="26" x14ac:dyDescent="0.35">
       <c r="A3" s="137" t="s">
         <v>86</v>
       </c>
@@ -7117,7 +7178,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="136" t="s">
         <v>94</v>
       </c>
@@ -7134,7 +7195,7 @@
       </c>
       <c r="G4" s="75"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="141" t="s">
         <v>93</v>
       </c>
@@ -7153,7 +7214,7 @@
       </c>
       <c r="G5" s="76"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="136" t="s">
         <v>92</v>
       </c>
@@ -7170,7 +7231,7 @@
       </c>
       <c r="G6" s="75"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="141" t="s">
         <v>95</v>
       </c>
@@ -7189,7 +7250,7 @@
       </c>
       <c r="G7" s="76"/>
     </row>
-    <row r="8" spans="1:7" s="139" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="139" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="136" t="s">
         <v>96</v>
       </c>
@@ -7208,7 +7269,7 @@
       </c>
       <c r="G8" s="75"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="141" t="s">
         <v>281</v>
       </c>
@@ -7245,17 +7306,17 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="69.5703125" customWidth="1"/>
+    <col min="2" max="2" width="69.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A2" s="147" t="s">
         <v>283</v>
       </c>
@@ -7263,7 +7324,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="148" t="s">
         <v>285</v>
       </c>
@@ -7271,7 +7332,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="147" t="s">
         <v>287</v>
       </c>
@@ -7279,7 +7340,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="148" t="s">
         <v>289</v>
       </c>
@@ -7287,7 +7348,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="147" t="s">
         <v>291</v>
       </c>
@@ -7295,7 +7356,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="148" t="s">
         <v>293</v>
       </c>
@@ -7303,7 +7364,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="147" t="s">
         <v>294</v>
       </c>
@@ -7311,7 +7372,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>296</v>
       </c>
@@ -7329,18 +7390,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A2" s="136" t="s">
         <v>299</v>
       </c>
@@ -7348,7 +7409,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="141" t="s">
         <v>301</v>
       </c>
@@ -7356,7 +7417,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A4" s="136" t="s">
         <v>303</v>
       </c>
@@ -7364,7 +7425,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" s="141" t="s">
         <v>305</v>
       </c>
@@ -7372,7 +7433,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>307</v>
       </c>
@@ -7390,18 +7451,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.26953125" customWidth="1"/>
+    <col min="2" max="2" width="59.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A2" s="74" t="s">
         <v>309</v>
       </c>
@@ -7409,7 +7470,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="140" t="s">
         <v>311</v>
       </c>
@@ -7417,7 +7478,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A4" s="74" t="s">
         <v>313</v>
       </c>
@@ -7425,7 +7486,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" s="140" t="s">
         <v>315</v>
       </c>
@@ -7433,7 +7494,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>317</v>
       </c>
@@ -7451,19 +7512,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="137" t="s">
         <v>331</v>
       </c>
@@ -7474,7 +7535,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="115" t="s">
         <v>321</v>
       </c>
@@ -7485,7 +7546,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="116" t="s">
         <v>324</v>
       </c>
@@ -7496,7 +7557,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="25" x14ac:dyDescent="0.35">
       <c r="A5" s="115" t="s">
         <v>327</v>
       </c>
@@ -7507,7 +7568,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="116" t="s">
         <v>329</v>
       </c>
@@ -7518,7 +7579,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
@@ -7536,22 +7597,22 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="137" t="s">
         <v>331</v>
       </c>
@@ -7571,7 +7632,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="115" t="s">
         <v>324</v>
       </c>
@@ -7591,7 +7652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A4" s="116" t="s">
         <v>338</v>
       </c>
@@ -7611,7 +7672,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A5" s="115" t="s">
         <v>344</v>
       </c>
@@ -7631,7 +7692,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>115</v>
       </c>
@@ -7647,18 +7708,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="185" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>18</v>
       </c>
@@ -7666,7 +7727,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>20</v>
       </c>
@@ -7674,7 +7735,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
         <v>22</v>
       </c>
@@ -7682,7 +7743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>23</v>
       </c>
@@ -7690,7 +7751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="50" t="s">
         <v>24</v>
       </c>
@@ -7711,57 +7772,57 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.42578125" customWidth="1"/>
+    <col min="1" max="1" width="58.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="218" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="218" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="218" t="s">
         <v>356</v>
       </c>
@@ -7779,52 +7840,52 @@
       <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="218" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="218" t="s">
         <v>364</v>
       </c>
@@ -7840,72 +7901,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="64.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="218" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="218" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="218" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="218" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="218" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="218" t="s">
         <v>377</v>
       </c>
@@ -7921,87 +7982,87 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="218" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="218" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A10" s="218" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="218" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="218" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="218" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="218" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="218" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="218" t="s">
         <v>393</v>
       </c>
@@ -8017,57 +8078,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.85546875" customWidth="1"/>
+    <col min="1" max="1" width="54.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="219" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="219" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="219" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="219" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="219" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="219" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="219" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="219" t="s">
         <v>403</v>
       </c>
@@ -8083,57 +8144,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="55.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="218" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="218" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="218" t="s">
         <v>403</v>
       </c>
@@ -8149,57 +8210,57 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="218" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="218" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="218" t="s">
         <v>419</v>
       </c>
@@ -8215,47 +8276,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="218" t="s">
         <v>426</v>
       </c>
@@ -8271,47 +8332,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="218" t="s">
         <v>434</v>
       </c>
@@ -8327,62 +8388,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+    <col min="1" max="1" width="63.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="218" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="218" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="218" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="218" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="218" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="218" t="s">
         <v>445</v>
       </c>
@@ -8400,18 +8461,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>28</v>
       </c>
@@ -8419,7 +8480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="49" t="s">
         <v>20</v>
       </c>
@@ -8427,25 +8488,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="49"/>
       <c r="B4" s="59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="49"/>
       <c r="B5" s="59" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="49"/>
       <c r="B6" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="50" t="s">
         <v>22</v>
       </c>
@@ -8453,13 +8514,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="50"/>
       <c r="B8" s="60" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="49" t="s">
         <v>23</v>
       </c>
@@ -8467,19 +8528,19 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="49"/>
       <c r="B10" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="49"/>
       <c r="B11" s="59" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="50" t="s">
         <v>24</v>
       </c>
@@ -8487,13 +8548,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="50"/>
       <c r="B13" s="60" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
         <v>37</v>
       </c>
@@ -8509,27 +8570,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="153" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>449</v>
       </c>
@@ -8545,32 +8606,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="96" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="218" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="218" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="218" t="s">
         <v>454</v>
       </c>
@@ -8586,42 +8647,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="220" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="221" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="221" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="221" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="221" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="221" t="s">
         <v>461</v>
       </c>
@@ -8637,47 +8698,47 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="222" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="223" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="223" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="223" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="223" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="223" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="223" t="s">
         <v>469</v>
       </c>
@@ -8693,42 +8754,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="154" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="156" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="155" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="155" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="155" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="155" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="155" t="s">
         <v>476</v>
       </c>
@@ -8744,27 +8805,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="46.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="224" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="225" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="62" x14ac:dyDescent="0.35">
       <c r="A4" s="225" t="s">
         <v>480</v>
       </c>
@@ -8782,32 +8843,32 @@
       <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="224" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A3" s="225" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="225" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="225" t="s">
         <v>485</v>
       </c>
@@ -8823,42 +8884,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="154" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="224" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="225" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="225" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="225" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="225" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="225" t="s">
         <v>491</v>
       </c>
@@ -8876,18 +8937,18 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.1796875" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="99" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="157" t="s">
         <v>493</v>
       </c>
@@ -8895,7 +8956,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="158" t="s">
         <v>495</v>
       </c>
@@ -8903,7 +8964,7 @@
         <v>5523.24</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="160" t="s">
         <v>496</v>
       </c>
@@ -8911,7 +8972,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="158" t="s">
         <v>497</v>
       </c>
@@ -8919,7 +8980,7 @@
         <v>3468.59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="162" t="s">
         <v>195</v>
       </c>
@@ -8928,7 +8989,7 @@
         <v>10791.83</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="164" t="s">
         <v>115</v>
       </c>
@@ -8946,18 +9007,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="172" t="s">
         <v>499</v>
       </c>
@@ -8965,7 +9026,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="173" t="s">
         <v>501</v>
       </c>
@@ -8973,7 +9034,7 @@
         <v>65600</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="174" t="s">
         <v>502</v>
       </c>
@@ -8981,7 +9042,7 @@
         <v>65600</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="173" t="s">
         <v>503</v>
       </c>
@@ -8989,7 +9050,7 @@
         <v>75152</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="174" t="s">
         <v>504</v>
       </c>
@@ -8997,20 +9058,20 @@
         <v>75152</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="165"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="165" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="166"/>
     </row>
   </sheetData>
@@ -9024,18 +9085,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="64.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
         <v>39</v>
       </c>
@@ -9043,7 +9104,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="186" t="s">
         <v>40</v>
       </c>
@@ -9051,7 +9112,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="187" t="s">
         <v>41</v>
       </c>
@@ -9059,7 +9120,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="186" t="s">
         <v>42</v>
       </c>
@@ -9067,7 +9128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="187" t="s">
         <v>43</v>
       </c>
@@ -9075,7 +9136,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="186" t="s">
         <v>44</v>
       </c>
@@ -9083,7 +9144,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="187" t="s">
         <v>45</v>
       </c>
@@ -9091,7 +9152,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="186" t="s">
         <v>46</v>
       </c>
@@ -9099,7 +9160,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="187" t="s">
         <v>47</v>
       </c>
@@ -9107,7 +9168,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="186" t="s">
         <v>48</v>
       </c>
@@ -9115,7 +9176,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="187" t="s">
         <v>49</v>
       </c>
@@ -9123,7 +9184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="186" t="s">
         <v>50</v>
       </c>
@@ -9131,15 +9192,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="188"/>
       <c r="B14" s="45"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="54"/>
       <c r="B15" s="45"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="53"/>
       <c r="B16" s="45"/>
     </row>
@@ -9156,18 +9217,18 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="172" t="s">
         <v>493</v>
       </c>
@@ -9175,7 +9236,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="173" t="s">
         <v>495</v>
       </c>
@@ -9183,7 +9244,7 @@
         <v>5523.23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="174" t="s">
         <v>496</v>
       </c>
@@ -9191,7 +9252,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="173" t="s">
         <v>497</v>
       </c>
@@ -9199,7 +9260,7 @@
         <v>274.55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="174" t="s">
         <v>195</v>
       </c>
@@ -9217,21 +9278,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C450A45-74C6-46D3-B8BA-5298941A1465}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.54296875" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="138" t="s">
         <v>509</v>
       </c>
@@ -9242,7 +9305,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="76" t="s">
         <v>510</v>
       </c>
@@ -9253,7 +9316,7 @@
         <v>9205.3799999999992</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="75" t="s">
         <v>511</v>
       </c>
@@ -9264,7 +9327,7 @@
         <v>7364.3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="76" t="s">
         <v>512</v>
       </c>
@@ -9275,7 +9338,7 @@
         <v>1841.08</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
         <v>513</v>
       </c>
@@ -9286,7 +9349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="76" t="s">
         <v>514</v>
       </c>
@@ -9297,7 +9360,7 @@
         <v>7364.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="75" t="s">
         <v>515</v>
       </c>
@@ -9308,7 +9371,7 @@
         <v>2502.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="76" t="s">
         <v>195</v>
       </c>
@@ -9330,18 +9393,18 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="181" t="s">
         <v>11</v>
       </c>
@@ -9349,7 +9412,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="182" t="s">
         <v>518</v>
       </c>
@@ -9357,7 +9420,7 @@
         <v>8580</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="183" t="s">
         <v>519</v>
       </c>
@@ -9365,7 +9428,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="182" t="s">
         <v>521</v>
       </c>
@@ -9373,7 +9436,7 @@
         <v>9228</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="183" t="s">
         <v>522</v>
       </c>
@@ -9381,7 +9444,7 @@
         <v>9559.56</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="183" t="s">
         <v>524</v>
       </c>
@@ -9389,7 +9452,7 @@
         <v>9967.8700000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="184" t="s">
         <v>523</v>
       </c>
@@ -9404,17 +9467,17 @@
   <dimension ref="A1:XFD14"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" style="89" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="227" customWidth="1"/>
-    <col min="3" max="3" width="56.140625" style="89" customWidth="1"/>
+    <col min="1" max="1" width="47.54296875" style="89" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" style="227" customWidth="1"/>
+    <col min="3" max="3" width="56.1796875" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>564</v>
       </c>
@@ -25802,7 +25865,7 @@
       <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
-    <row r="2" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16384" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="232" t="s">
         <v>537</v>
       </c>
@@ -25813,7 +25876,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="3" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="228" t="s">
         <v>540</v>
       </c>
@@ -25824,7 +25887,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="4" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="230" t="s">
         <v>543</v>
       </c>
@@ -25835,7 +25898,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="5" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="228" t="s">
         <v>545</v>
       </c>
@@ -25846,7 +25909,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="6" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="230" t="s">
         <v>546</v>
       </c>
@@ -25857,7 +25920,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="228" t="s">
         <v>552</v>
       </c>
@@ -25868,7 +25931,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="230" t="s">
         <v>548</v>
       </c>
@@ -25879,7 +25942,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="228" t="s">
         <v>551</v>
       </c>
@@ -25890,7 +25953,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="230" t="s">
         <v>561</v>
       </c>
@@ -25901,7 +25964,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="228" t="s">
         <v>562</v>
       </c>
@@ -25912,7 +25975,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="12" spans="1:16384" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16384" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A12" s="230" t="s">
         <v>553</v>
       </c>
@@ -25923,7 +25986,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="13" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A13" s="228" t="s">
         <v>555</v>
       </c>
@@ -25934,7 +25997,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="14" spans="1:16384" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16384" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="230" t="s">
         <v>557</v>
       </c>
@@ -25955,42 +26018,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A23A79C-F720-4065-9056-D02F2AF122BD}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="247" t="s">
+    <row r="1" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="237" t="s">
         <v>533</v>
       </c>
-      <c r="B1" s="245">
+      <c r="B1" s="235">
         <v>16130560</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="248" t="s">
+    <row r="2" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="238" t="s">
         <v>534</v>
       </c>
-      <c r="B2" s="246">
+      <c r="B2" s="236">
         <v>431440</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="247" t="s">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="237" t="s">
         <v>535</v>
       </c>
-      <c r="B3" s="245">
+      <c r="B3" s="235">
         <v>500000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="248" t="s">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="238" t="s">
         <v>536</v>
       </c>
       <c r="B4" s="234">
@@ -25998,18 +26061,117 @@
         <v>17062000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="72"/>
       <c r="B5" s="226"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="72"/>
       <c r="B6" s="226"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="249"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G9" s="239"/>
     </row>
   </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B459E77F-7604-4D80-93AC-3F33EBF678B1}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="250" t="s">
+        <v>565</v>
+      </c>
+      <c r="B1" s="250" t="s">
+        <v>566</v>
+      </c>
+      <c r="C1" s="250" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="251" t="s">
+        <v>568</v>
+      </c>
+      <c r="B2" s="251">
+        <v>36</v>
+      </c>
+      <c r="C2" s="251" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="252" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" s="252" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="252" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="251" t="s">
+        <v>572</v>
+      </c>
+      <c r="B4" s="251">
+        <v>8</v>
+      </c>
+      <c r="C4" s="251" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="252" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" s="252">
+        <v>16</v>
+      </c>
+      <c r="C5" s="252" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="253" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" s="251" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="251" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="253"/>
+      <c r="B7" s="251">
+        <v>15</v>
+      </c>
+      <c r="C7" s="251" t="s">
+        <v>578</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -26023,19 +26185,19 @@
       <selection activeCell="A2" sqref="A2:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="69" t="s">
         <v>81</v>
       </c>
@@ -26052,7 +26214,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="193" t="s">
         <v>66</v>
       </c>
@@ -26069,7 +26231,7 @@
         <v>0.34100000000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="192" t="s">
         <v>67</v>
       </c>
@@ -26086,7 +26248,7 @@
         <v>0.128</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="193" t="s">
         <v>68</v>
       </c>
@@ -26103,7 +26265,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="192" t="s">
         <v>69</v>
       </c>
@@ -26120,7 +26282,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="193" t="s">
         <v>70</v>
       </c>
@@ -26137,7 +26299,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="192" t="s">
         <v>71</v>
       </c>
@@ -26154,7 +26316,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="193" t="s">
         <v>72</v>
       </c>
@@ -26171,7 +26333,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="192" t="s">
         <v>73</v>
       </c>
@@ -26188,7 +26350,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="193" t="s">
         <v>74</v>
       </c>
@@ -26205,7 +26367,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="192" t="s">
         <v>75</v>
       </c>
@@ -26222,7 +26384,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="193" t="s">
         <v>76</v>
       </c>
@@ -26239,16 +26401,16 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="235" t="s">
+    <row r="14" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="240" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="235"/>
-      <c r="C14" s="235"/>
-      <c r="D14" s="235"/>
-      <c r="E14" s="235"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="240"/>
+      <c r="C14" s="240"/>
+      <c r="D14" s="240"/>
+      <c r="E14" s="240"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
         <v>64</v>
       </c>
@@ -26268,17 +26430,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="86" t="s">
         <v>84</v>
       </c>
@@ -26295,7 +26457,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="86" t="s">
         <v>83</v>
       </c>
@@ -26312,7 +26474,7 @@
         <v>138.15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="64" t="s">
         <v>64</v>
       </c>
@@ -26332,18 +26494,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="5" width="15.7265625" style="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="114.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="117" x14ac:dyDescent="0.35">
       <c r="A2" s="78" t="s">
         <v>86</v>
       </c>
@@ -26360,7 +26522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="79" t="s">
         <v>91</v>
       </c>
@@ -26377,7 +26539,7 @@
         <v>9.39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="77" t="s">
         <v>92</v>
       </c>
@@ -26394,7 +26556,7 @@
         <v>10.88</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="79" t="s">
         <v>93</v>
       </c>
@@ -26411,7 +26573,7 @@
         <v>5.0199999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="77" t="s">
         <v>94</v>
       </c>
@@ -26428,7 +26590,7 @@
         <v>12.37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="79" t="s">
         <v>95</v>
       </c>
@@ -26445,7 +26607,7 @@
         <v>6.17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="77" t="s">
         <v>96</v>
       </c>
@@ -26462,16 +26624,16 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="236" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="241" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="236"/>
-      <c r="C9" s="236"/>
-      <c r="D9" s="236"/>
-      <c r="E9" s="236"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="241"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="241"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>98</v>
       </c>
@@ -26490,19 +26652,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="2" max="2" width="46.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="51" t="s">
         <v>99</v>
       </c>
       <c r="B1" s="72"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="69" t="s">
         <v>39</v>
       </c>
@@ -26510,7 +26672,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A3" s="57" t="s">
         <v>102</v>
       </c>
@@ -26518,7 +26680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A4" s="58" t="s">
         <v>68</v>
       </c>
@@ -26526,7 +26688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="57" t="s">
         <v>42</v>
       </c>
@@ -26534,7 +26696,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="62" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
         <v>43</v>
       </c>
@@ -26542,7 +26704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="57" t="s">
         <v>44</v>
       </c>
@@ -26550,7 +26712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="61" t="s">
         <v>45</v>
       </c>
@@ -26558,7 +26720,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
         <v>46</v>
       </c>
@@ -26566,7 +26728,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="58" t="s">
         <v>100</v>
       </c>
@@ -26574,7 +26736,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="57" t="s">
         <v>101</v>
       </c>
@@ -26582,7 +26744,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="93" x14ac:dyDescent="0.35">
       <c r="A12" s="58" t="s">
         <v>50</v>
       </c>
@@ -26590,15 +26752,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="83"/>
       <c r="B13" s="72"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="84"/>
       <c r="B14" s="72"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="83"/>
       <c r="B15" s="72"/>
     </row>
